--- a/docs/OVW Sheets/OVMDemo-RTechnology.xlsx
+++ b/docs/OVW Sheets/OVMDemo-RTechnology.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdevalka\OVW Migration Project\Project Code\OVWMigration\docs\OVW Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OVW Migration Dec 29\OVWMigration\docs\OVW Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="24000" windowHeight="9675" firstSheet="25" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="24000" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="en_au" sheetId="1" r:id="rId1"/>
@@ -24,32 +24,34 @@
     <sheet name="fr_ch" sheetId="10" r:id="rId10"/>
     <sheet name="de_de" sheetId="11" r:id="rId11"/>
     <sheet name="da_dk" sheetId="12" r:id="rId12"/>
-    <sheet name="fr_dz" sheetId="14" r:id="rId13"/>
-    <sheet name="es_es" sheetId="15" r:id="rId14"/>
-    <sheet name="fr_fr" sheetId="16" r:id="rId15"/>
-    <sheet name="en_hk" sheetId="17" r:id="rId16"/>
-    <sheet name="zh_hk" sheetId="18" r:id="rId17"/>
-    <sheet name="en_il" sheetId="19" r:id="rId18"/>
-    <sheet name="en_in" sheetId="20" r:id="rId19"/>
-    <sheet name="it_it" sheetId="21" r:id="rId20"/>
-    <sheet name="ko_kr" sheetId="22" r:id="rId21"/>
-    <sheet name="en_ae" sheetId="24" r:id="rId22"/>
-    <sheet name="ar_ae" sheetId="25" r:id="rId23"/>
-    <sheet name="nl_nl" sheetId="26" r:id="rId24"/>
-    <sheet name="no_no" sheetId="27" r:id="rId25"/>
-    <sheet name="pl_pl" sheetId="28" r:id="rId26"/>
-    <sheet name="pt_pt" sheetId="29" r:id="rId27"/>
-    <sheet name="ru_ru" sheetId="30" r:id="rId28"/>
-    <sheet name="sv_se" sheetId="31" r:id="rId29"/>
-    <sheet name="en_sg" sheetId="32" r:id="rId30"/>
-    <sheet name="th_th" sheetId="33" r:id="rId31"/>
-    <sheet name="tr_tr" sheetId="34" r:id="rId32"/>
-    <sheet name="zh_tw" sheetId="35" r:id="rId33"/>
-    <sheet name="ru_ua" sheetId="36" r:id="rId34"/>
-    <sheet name="en_gb" sheetId="37" r:id="rId35"/>
-    <sheet name="en_za" sheetId="38" r:id="rId36"/>
-    <sheet name="zh_cn" sheetId="39" r:id="rId37"/>
-    <sheet name="ja_jp" sheetId="40" r:id="rId38"/>
+    <sheet name="en_dz" sheetId="42" r:id="rId13"/>
+    <sheet name="fr_dz" sheetId="14" r:id="rId14"/>
+    <sheet name="es_es" sheetId="15" r:id="rId15"/>
+    <sheet name="es_mx" sheetId="41" r:id="rId16"/>
+    <sheet name="fr_fr" sheetId="16" r:id="rId17"/>
+    <sheet name="en_hk" sheetId="17" r:id="rId18"/>
+    <sheet name="zh_hk" sheetId="18" r:id="rId19"/>
+    <sheet name="en_il" sheetId="19" r:id="rId20"/>
+    <sheet name="en_in" sheetId="20" r:id="rId21"/>
+    <sheet name="it_it" sheetId="21" r:id="rId22"/>
+    <sheet name="ko_kr" sheetId="22" r:id="rId23"/>
+    <sheet name="en_ae" sheetId="24" r:id="rId24"/>
+    <sheet name="ar_ae" sheetId="25" r:id="rId25"/>
+    <sheet name="nl_nl" sheetId="26" r:id="rId26"/>
+    <sheet name="no_no" sheetId="27" r:id="rId27"/>
+    <sheet name="pl_pl" sheetId="28" r:id="rId28"/>
+    <sheet name="pt_pt" sheetId="29" r:id="rId29"/>
+    <sheet name="ru_ru" sheetId="30" r:id="rId30"/>
+    <sheet name="sv_se" sheetId="31" r:id="rId31"/>
+    <sheet name="en_sg" sheetId="32" r:id="rId32"/>
+    <sheet name="th_th" sheetId="33" r:id="rId33"/>
+    <sheet name="tr_tr" sheetId="34" r:id="rId34"/>
+    <sheet name="zh_tw" sheetId="35" r:id="rId35"/>
+    <sheet name="ru_ua" sheetId="36" r:id="rId36"/>
+    <sheet name="en_gb" sheetId="37" r:id="rId37"/>
+    <sheet name="en_za" sheetId="38" r:id="rId38"/>
+    <sheet name="zh_cn" sheetId="39" r:id="rId39"/>
+    <sheet name="ja_jp" sheetId="40" r:id="rId40"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="82">
   <si>
     <t>products</t>
   </si>
@@ -181,6 +183,132 @@
   </si>
   <si>
     <t>http://www.cisco.com/web/JP/product/hs/switches/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DE/products/unified_computing/technology.html</t>
+  </si>
+  <si>
+    <t>servers-unified-computing</t>
+  </si>
+  <si>
+    <t>technology-var6</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BR/produtos/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/FR/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/LA/productos/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/ar/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/RU/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/cisco/web/UK/products/unified_computing/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CN/products/products_netsol/ucs/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/JP/product/hs/ucs/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ANZ/products/unified_computing/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/AT/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/fr/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/BE/nl/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/products/unified_computing/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CA/products/unified_computing/technology_fr.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/de/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/CH/fr/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/DK/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/EA/products/FR/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ES/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/HK/tc/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IL/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IN/products/unified_computing/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/IT/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/KR/products/pc/unified_computing/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ME/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NL/producten/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/NO/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PL/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/PT/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SE/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/SG/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TH/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TR/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/TW/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/UA/products/uc/technology.html</t>
+  </si>
+  <si>
+    <t>http://www.cisco.com/web/ZA/products/uc/technology.html</t>
   </si>
 </sst>
 </file>
@@ -256,11 +384,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -544,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +696,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -575,9 +715,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -586,7 +727,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +749,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -616,6 +768,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -626,14 +779,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,11 +801,23 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -663,7 +828,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +850,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -693,6 +869,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -700,10 +877,47 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +939,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -733,17 +958,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,7 +991,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -773,17 +1010,55 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +1080,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -813,17 +1099,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +1132,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -853,17 +1151,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +1184,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -893,17 +1203,70 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,22 +1288,34 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,62 +1337,34 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,22 +1386,34 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,28 +1435,40 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="67.5703125" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1113,22 +1484,34 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,22 +1533,34 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,7 +1582,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1195,16 +1601,19 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1225,7 +1634,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1233,22 +1653,23 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.7109375" customWidth="1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1265,7 +1686,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1273,22 +1705,23 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="74.140625" customWidth="1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1305,7 +1738,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1313,17 +1757,70 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1842,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1362,17 +1870,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1903,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1402,57 +1922,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1955,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1491,17 +1983,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +2016,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1531,17 +2035,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,7 +2068,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1580,17 +2096,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +2129,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1620,17 +2148,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,7 +2181,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1660,17 +2200,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +2233,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1700,17 +2252,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +2285,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1740,17 +2304,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,7 +2337,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1780,23 +2356,76 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="67.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1812,7 +2441,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1820,57 +2460,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,7 +2493,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1900,6 +2512,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1910,7 +2523,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +2545,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1940,6 +2564,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1950,7 +2575,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,11 +2597,23 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+      <c r="A2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1987,7 +2624,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,11 +2646,23 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
+      <c r="A2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2024,7 +2673,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +2695,18 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -2054,6 +2714,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
